--- a/PTS2022-data/2018_County-level_ASRH.xlsx
+++ b/PTS2022-data/2018_County-level_ASRH.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Planning\Health Info Systems and Reporting\POP\Pop2018\ASRH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/mary_ryan_yale_edu/Documents/Desktop/personal-code/pathwaysToScience-2022/PTS2022-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_37C4092813F9C4E35C606DCC1EC187E663E69DA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF0694B-CAD8-415D-8461-04A7B732BBD4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018_County-level_ASRH" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,19 @@
   <definedNames>
     <definedName name="IDX" localSheetId="0">'2018_County-level_ASRH'!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -236,7 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1342,7 +1355,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1488,52 +1501,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1556,6 +1529,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1563,6 +1540,45 @@
     <xf numFmtId="3" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1884,11 +1900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U183"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="V139" sqref="V139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,32 +1921,32 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:22" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-    </row>
-    <row r="2" spans="1:21" s="42" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+    </row>
+    <row r="2" spans="1:22" s="42" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1953,77 +1969,77 @@
       <c r="T2" s="4"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
+    <row r="3" spans="1:22" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="59" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="53" t="s">
+    <row r="4" spans="1:22" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54" t="s">
+      <c r="M4" s="52"/>
+      <c r="N4" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54" t="s">
+      <c r="O4" s="52"/>
+      <c r="P4" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54" t="s">
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="54"/>
-      <c r="T4" s="62" t="s">
+      <c r="S4" s="52"/>
+      <c r="T4" s="53" t="s">
         <v>35</v>
       </c>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2054,7 +2070,7 @@
       <c r="J5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="56"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="11" t="s">
         <v>38</v>
       </c>
@@ -2079,13 +2095,13 @@
       <c r="S5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="63"/>
+      <c r="T5" s="54"/>
       <c r="U5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2148,9 +2164,13 @@
       <c r="U6" s="19">
         <v>9752</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="V6" s="64">
+        <f>SUM(U6:U24)</f>
+        <v>943823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
       <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
@@ -2212,8 +2232,8 @@
         <v>41920</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
       <c r="B8" s="20" t="s">
         <v>4</v>
       </c>
@@ -2275,8 +2295,8 @@
         <v>56713</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
       <c r="B9" s="20" t="s">
         <v>5</v>
       </c>
@@ -2338,8 +2358,8 @@
         <v>64049</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
@@ -2401,8 +2421,8 @@
         <v>65906</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
       <c r="B11" s="20" t="s">
         <v>7</v>
       </c>
@@ -2464,8 +2484,8 @@
         <v>59743</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
       <c r="B12" s="20" t="s">
         <v>8</v>
       </c>
@@ -2527,8 +2547,8 @@
         <v>52874</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
       <c r="B13" s="20" t="s">
         <v>9</v>
       </c>
@@ -2590,8 +2610,8 @@
         <v>55047</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
       <c r="B14" s="20" t="s">
         <v>10</v>
       </c>
@@ -2653,8 +2673,8 @@
         <v>58183</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
       <c r="B15" s="20" t="s">
         <v>11</v>
       </c>
@@ -2716,8 +2736,8 @@
         <v>58887</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
       <c r="B16" s="20" t="s">
         <v>12</v>
       </c>
@@ -2779,8 +2799,8 @@
         <v>66466</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
       <c r="B17" s="20" t="s">
         <v>13</v>
       </c>
@@ -2842,8 +2862,8 @@
         <v>72070</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
       <c r="B18" s="20" t="s">
         <v>14</v>
       </c>
@@ -2905,8 +2925,8 @@
         <v>71103</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
       <c r="B19" s="20" t="s">
         <v>15</v>
       </c>
@@ -2968,8 +2988,8 @@
         <v>61192</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
       <c r="B20" s="20" t="s">
         <v>16</v>
       </c>
@@ -3031,8 +3051,8 @@
         <v>45485</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
       <c r="B21" s="20" t="s">
         <v>17</v>
       </c>
@@ -3094,8 +3114,8 @@
         <v>36410</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
       <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
@@ -3157,8 +3177,8 @@
         <v>26273</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
       <c r="B23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3220,8 +3240,8 @@
         <v>18084</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
       <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
@@ -3283,8 +3303,8 @@
         <v>23666</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -3347,9 +3367,13 @@
       <c r="U25" s="26">
         <v>9253</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="V25" s="64">
+        <f>SUM(U25:U43)</f>
+        <v>892697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
       <c r="B26" s="20" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3435,8 @@
         <v>38613</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
       <c r="B27" s="20" t="s">
         <v>4</v>
       </c>
@@ -3474,8 +3498,8 @@
         <v>50488</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
       <c r="B28" s="20" t="s">
         <v>5</v>
       </c>
@@ -3537,8 +3561,8 @@
         <v>54513</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
       <c r="B29" s="20" t="s">
         <v>6</v>
       </c>
@@ -3600,8 +3624,8 @@
         <v>57686</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
       <c r="B30" s="20" t="s">
         <v>7</v>
       </c>
@@ -3663,8 +3687,8 @@
         <v>57352</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
       <c r="B31" s="20" t="s">
         <v>8</v>
       </c>
@@ -3726,8 +3750,8 @@
         <v>59143</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
       <c r="B32" s="20" t="s">
         <v>9</v>
       </c>
@@ -3789,8 +3813,8 @@
         <v>59330</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
       <c r="B33" s="20" t="s">
         <v>10</v>
       </c>
@@ -3852,8 +3876,8 @@
         <v>57715</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
       <c r="B34" s="20" t="s">
         <v>11</v>
       </c>
@@ -3915,8 +3939,8 @@
         <v>52224</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
       <c r="B35" s="20" t="s">
         <v>12</v>
       </c>
@@ -3978,8 +4002,8 @@
         <v>57317</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
       <c r="B36" s="20" t="s">
         <v>13</v>
       </c>
@@ -4041,8 +4065,8 @@
         <v>62607</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
       <c r="B37" s="20" t="s">
         <v>14</v>
       </c>
@@ -4104,8 +4128,8 @@
         <v>64910</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
       <c r="B38" s="20" t="s">
         <v>15</v>
       </c>
@@ -4167,8 +4191,8 @@
         <v>58672</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
       <c r="B39" s="20" t="s">
         <v>16</v>
       </c>
@@ -4230,8 +4254,8 @@
         <v>46515</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
       <c r="B40" s="20" t="s">
         <v>17</v>
       </c>
@@ -4293,8 +4317,8 @@
         <v>37764</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
       <c r="B41" s="20" t="s">
         <v>18</v>
       </c>
@@ -4356,8 +4380,8 @@
         <v>26407</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
       <c r="B42" s="20" t="s">
         <v>19</v>
       </c>
@@ -4419,8 +4443,8 @@
         <v>18420</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
       <c r="B43" s="20" t="s">
         <v>20</v>
       </c>
@@ -4482,8 +4506,8 @@
         <v>23768</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -4546,9 +4570,13 @@
       <c r="U44" s="26">
         <v>1397</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="V44" s="64">
+        <f>SUM(U44:U62)</f>
+        <v>181111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
       <c r="B45" s="20" t="s">
         <v>3</v>
       </c>
@@ -4610,8 +4638,8 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
       <c r="B46" s="20" t="s">
         <v>4</v>
       </c>
@@ -4673,8 +4701,8 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
       <c r="B47" s="20" t="s">
         <v>5</v>
       </c>
@@ -4736,8 +4764,8 @@
         <v>10126</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
       <c r="B48" s="20" t="s">
         <v>6</v>
       </c>
@@ -4799,8 +4827,8 @@
         <v>10627</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
       <c r="B49" s="20" t="s">
         <v>7</v>
       </c>
@@ -4862,8 +4890,8 @@
         <v>9725</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
       <c r="B50" s="20" t="s">
         <v>8</v>
       </c>
@@ -4925,8 +4953,8 @@
         <v>9495</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="46"/>
       <c r="B51" s="20" t="s">
         <v>9</v>
       </c>
@@ -4988,8 +5016,8 @@
         <v>9398</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="46"/>
       <c r="B52" s="20" t="s">
         <v>10</v>
       </c>
@@ -5051,8 +5079,8 @@
         <v>9626</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
       <c r="B53" s="20" t="s">
         <v>11</v>
       </c>
@@ -5114,8 +5142,8 @@
         <v>9299</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
       <c r="B54" s="20" t="s">
         <v>12</v>
       </c>
@@ -5177,8 +5205,8 @@
         <v>12158</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
       <c r="B55" s="20" t="s">
         <v>13</v>
       </c>
@@ -5240,8 +5268,8 @@
         <v>14709</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="46"/>
       <c r="B56" s="20" t="s">
         <v>14</v>
       </c>
@@ -5303,8 +5331,8 @@
         <v>15970</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="46"/>
       <c r="B57" s="20" t="s">
         <v>15</v>
       </c>
@@ -5366,8 +5394,8 @@
         <v>15483</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="46"/>
       <c r="B58" s="20" t="s">
         <v>16</v>
       </c>
@@ -5429,8 +5457,8 @@
         <v>12389</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="46"/>
       <c r="B59" s="20" t="s">
         <v>17</v>
       </c>
@@ -5492,8 +5520,8 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="46"/>
       <c r="B60" s="20" t="s">
         <v>18</v>
       </c>
@@ -5555,8 +5583,8 @@
         <v>6827</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="46"/>
       <c r="B61" s="20" t="s">
         <v>19</v>
       </c>
@@ -5618,8 +5646,8 @@
         <v>4282</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
       <c r="B62" s="20" t="s">
         <v>20</v>
       </c>
@@ -5681,8 +5709,8 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="47" t="s">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -5745,9 +5773,13 @@
       <c r="U63" s="26">
         <v>1268</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="V63" s="64">
+        <f>SUM(U63:U81)</f>
+        <v>162682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
       <c r="B64" s="20" t="s">
         <v>3</v>
       </c>
@@ -5810,7 +5842,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="20" t="s">
         <v>4</v>
       </c>
@@ -5873,7 +5905,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
+      <c r="A66" s="46"/>
       <c r="B66" s="20" t="s">
         <v>5</v>
       </c>
@@ -5936,7 +5968,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="20" t="s">
         <v>6</v>
       </c>
@@ -5999,7 +6031,7 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="20" t="s">
         <v>7</v>
       </c>
@@ -6062,7 +6094,7 @@
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="20" t="s">
         <v>8</v>
       </c>
@@ -6125,7 +6157,7 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="20" t="s">
         <v>9</v>
       </c>
@@ -6188,7 +6220,7 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="20" t="s">
         <v>10</v>
       </c>
@@ -6251,7 +6283,7 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="20" t="s">
         <v>11</v>
       </c>
@@ -6314,7 +6346,7 @@
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="20" t="s">
         <v>12</v>
       </c>
@@ -6377,7 +6409,7 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="20" t="s">
         <v>13</v>
       </c>
@@ -6440,7 +6472,7 @@
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="20" t="s">
         <v>14</v>
       </c>
@@ -6503,7 +6535,7 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="20" t="s">
         <v>15</v>
       </c>
@@ -6566,7 +6598,7 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="20" t="s">
         <v>16</v>
       </c>
@@ -6629,7 +6661,7 @@
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="20" t="s">
         <v>17</v>
       </c>
@@ -6692,7 +6724,7 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="20" t="s">
         <v>18</v>
       </c>
@@ -6755,7 +6787,7 @@
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="20" t="s">
         <v>19</v>
       </c>
@@ -6817,8 +6849,8 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="47"/>
       <c r="B81" s="20" t="s">
         <v>20</v>
       </c>
@@ -6880,8 +6912,8 @@
         <v>4889</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="47" t="s">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="20" t="s">
@@ -6944,9 +6976,13 @@
       <c r="U82" s="26">
         <v>8643</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
+      <c r="V82" s="64">
+        <f>SUM(U82:U100)</f>
+        <v>857620</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="46"/>
       <c r="B83" s="20" t="s">
         <v>3</v>
       </c>
@@ -7008,8 +7044,8 @@
         <v>35517</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" s="46"/>
       <c r="B84" s="20" t="s">
         <v>4</v>
       </c>
@@ -7071,8 +7107,8 @@
         <v>46082</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85" s="46"/>
       <c r="B85" s="20" t="s">
         <v>5</v>
       </c>
@@ -7134,8 +7170,8 @@
         <v>50768</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86" s="46"/>
       <c r="B86" s="20" t="s">
         <v>6</v>
       </c>
@@ -7197,8 +7233,8 @@
         <v>58409</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A87" s="46"/>
       <c r="B87" s="20" t="s">
         <v>7</v>
       </c>
@@ -7260,8 +7296,8 @@
         <v>59257</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" s="46"/>
       <c r="B88" s="20" t="s">
         <v>8</v>
       </c>
@@ -7323,8 +7359,8 @@
         <v>58453</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A89" s="46"/>
       <c r="B89" s="20" t="s">
         <v>9</v>
       </c>
@@ -7386,8 +7422,8 @@
         <v>56564</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90" s="46"/>
       <c r="B90" s="20" t="s">
         <v>10</v>
       </c>
@@ -7449,8 +7485,8 @@
         <v>52347</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A91" s="46"/>
       <c r="B91" s="20" t="s">
         <v>11</v>
       </c>
@@ -7512,8 +7548,8 @@
         <v>48260</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A92" s="46"/>
       <c r="B92" s="20" t="s">
         <v>12</v>
       </c>
@@ -7575,8 +7611,8 @@
         <v>54875</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A93" s="46"/>
       <c r="B93" s="20" t="s">
         <v>13</v>
       </c>
@@ -7638,8 +7674,8 @@
         <v>59909</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94" s="46"/>
       <c r="B94" s="20" t="s">
         <v>14</v>
       </c>
@@ -7701,8 +7737,8 @@
         <v>62657</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A95" s="46"/>
       <c r="B95" s="20" t="s">
         <v>15</v>
       </c>
@@ -7764,8 +7800,8 @@
         <v>56993</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A96" s="46"/>
       <c r="B96" s="20" t="s">
         <v>16</v>
       </c>
@@ -7827,8 +7863,8 @@
         <v>46011</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A97" s="46"/>
       <c r="B97" s="20" t="s">
         <v>17</v>
       </c>
@@ -7890,8 +7926,8 @@
         <v>37144</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A98" s="46"/>
       <c r="B98" s="20" t="s">
         <v>18</v>
       </c>
@@ -7953,8 +7989,8 @@
         <v>25740</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A99" s="46"/>
       <c r="B99" s="20" t="s">
         <v>19</v>
       </c>
@@ -8016,8 +8052,8 @@
         <v>17388</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A100" s="57"/>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A100" s="47"/>
       <c r="B100" s="20" t="s">
         <v>20</v>
       </c>
@@ -8079,8 +8115,8 @@
         <v>22603</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A101" s="47" t="s">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A101" s="45" t="s">
         <v>25</v>
       </c>
       <c r="B101" s="20" t="s">
@@ -8143,9 +8179,13 @@
       <c r="U101" s="26">
         <v>2560</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
+      <c r="V101" s="64">
+        <f>SUM(U101:U119)</f>
+        <v>266784</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A102" s="46"/>
       <c r="B102" s="20" t="s">
         <v>3</v>
       </c>
@@ -8207,8 +8247,8 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A103" s="46"/>
       <c r="B103" s="20" t="s">
         <v>4</v>
       </c>
@@ -8270,8 +8310,8 @@
         <v>13846</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A104" s="46"/>
       <c r="B104" s="20" t="s">
         <v>5</v>
       </c>
@@ -8333,8 +8373,8 @@
         <v>15056</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A105" s="46"/>
       <c r="B105" s="20" t="s">
         <v>6</v>
       </c>
@@ -8396,8 +8436,8 @@
         <v>16686</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A106" s="46"/>
       <c r="B106" s="20" t="s">
         <v>7</v>
       </c>
@@ -8459,8 +8499,8 @@
         <v>19639</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A107" s="46"/>
       <c r="B107" s="20" t="s">
         <v>8</v>
       </c>
@@ -8522,8 +8562,8 @@
         <v>18062</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A108" s="46"/>
       <c r="B108" s="20" t="s">
         <v>9</v>
       </c>
@@ -8585,8 +8625,8 @@
         <v>16932</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A109" s="46"/>
       <c r="B109" s="20" t="s">
         <v>10</v>
       </c>
@@ -8648,8 +8688,8 @@
         <v>15492</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A110" s="46"/>
       <c r="B110" s="20" t="s">
         <v>11</v>
       </c>
@@ -8711,8 +8751,8 @@
         <v>14179</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A111" s="46"/>
       <c r="B111" s="20" t="s">
         <v>12</v>
       </c>
@@ -8774,8 +8814,8 @@
         <v>16376</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A112" s="46"/>
       <c r="B112" s="20" t="s">
         <v>13</v>
       </c>
@@ -8837,8 +8877,8 @@
         <v>19059</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A113" s="46"/>
       <c r="B113" s="20" t="s">
         <v>14</v>
       </c>
@@ -8900,8 +8940,8 @@
         <v>20608</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A114" s="48"/>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A114" s="46"/>
       <c r="B114" s="20" t="s">
         <v>15</v>
       </c>
@@ -8963,8 +9003,8 @@
         <v>19005</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A115" s="46"/>
       <c r="B115" s="20" t="s">
         <v>16</v>
       </c>
@@ -9026,8 +9066,8 @@
         <v>15379</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A116" s="46"/>
       <c r="B116" s="20" t="s">
         <v>17</v>
       </c>
@@ -9089,8 +9129,8 @@
         <v>12450</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A117" s="46"/>
       <c r="B117" s="20" t="s">
         <v>18</v>
       </c>
@@ -9152,8 +9192,8 @@
         <v>8653</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A118" s="46"/>
       <c r="B118" s="20" t="s">
         <v>19</v>
       </c>
@@ -9215,8 +9255,8 @@
         <v>5614</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A119" s="57"/>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A119" s="47"/>
       <c r="B119" s="20" t="s">
         <v>20</v>
       </c>
@@ -9278,8 +9318,8 @@
         <v>6515</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A120" s="47" t="s">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A120" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B120" s="20" t="s">
@@ -9342,9 +9382,13 @@
       <c r="U120" s="26">
         <v>1165</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
+      <c r="V120" s="64">
+        <f>SUM(U120:U138)</f>
+        <v>150921</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A121" s="46"/>
       <c r="B121" s="20" t="s">
         <v>3</v>
       </c>
@@ -9406,8 +9450,8 @@
         <v>5080</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A122" s="46"/>
       <c r="B122" s="20" t="s">
         <v>4</v>
       </c>
@@ -9469,8 +9513,8 @@
         <v>6738</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A123" s="46"/>
       <c r="B123" s="20" t="s">
         <v>5</v>
       </c>
@@ -9532,8 +9576,8 @@
         <v>7871</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A124" s="46"/>
       <c r="B124" s="20" t="s">
         <v>6</v>
       </c>
@@ -9595,8 +9639,8 @@
         <v>14271</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A125" s="46"/>
       <c r="B125" s="20" t="s">
         <v>7</v>
       </c>
@@ -9658,8 +9702,8 @@
         <v>19651</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A126" s="48"/>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A126" s="46"/>
       <c r="B126" s="20" t="s">
         <v>8</v>
       </c>
@@ -9721,8 +9765,8 @@
         <v>8281</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A127" s="46"/>
       <c r="B127" s="20" t="s">
         <v>9</v>
       </c>
@@ -9784,8 +9828,8 @@
         <v>8164</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A128" s="46"/>
       <c r="B128" s="20" t="s">
         <v>10</v>
       </c>
@@ -9847,8 +9891,8 @@
         <v>8126</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A129" s="46"/>
       <c r="B129" s="20" t="s">
         <v>11</v>
       </c>
@@ -9910,8 +9954,8 @@
         <v>7308</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A130" s="48"/>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A130" s="46"/>
       <c r="B130" s="20" t="s">
         <v>12</v>
       </c>
@@ -9973,8 +10017,8 @@
         <v>9106</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A131" s="46"/>
       <c r="B131" s="20" t="s">
         <v>13</v>
       </c>
@@ -10036,8 +10080,8 @@
         <v>10324</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A132" s="48"/>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A132" s="46"/>
       <c r="B132" s="20" t="s">
         <v>14</v>
       </c>
@@ -10099,8 +10143,8 @@
         <v>11024</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A133" s="46"/>
       <c r="B133" s="20" t="s">
         <v>15</v>
       </c>
@@ -10162,8 +10206,8 @@
         <v>9967</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A134" s="46"/>
       <c r="B134" s="20" t="s">
         <v>16</v>
       </c>
@@ -10225,8 +10269,8 @@
         <v>7666</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A135" s="46"/>
       <c r="B135" s="20" t="s">
         <v>17</v>
       </c>
@@ -10288,8 +10332,8 @@
         <v>6097</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A136" s="46"/>
       <c r="B136" s="20" t="s">
         <v>18</v>
       </c>
@@ -10351,8 +10395,8 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A137" s="46"/>
       <c r="B137" s="20" t="s">
         <v>19</v>
       </c>
@@ -10414,8 +10458,8 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A138" s="57"/>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A138" s="47"/>
       <c r="B138" s="20" t="s">
         <v>20</v>
       </c>
@@ -10477,8 +10521,8 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A139" s="47" t="s">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A139" s="45" t="s">
         <v>27</v>
       </c>
       <c r="B139" s="20" t="s">
@@ -10541,9 +10585,13 @@
       <c r="U139" s="26">
         <v>1075</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
+      <c r="V139" s="64">
+        <f>SUM(U139:U157)</f>
+        <v>117027</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A140" s="46"/>
       <c r="B140" s="20" t="s">
         <v>3</v>
       </c>
@@ -10605,8 +10653,8 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A141" s="46"/>
       <c r="B141" s="20" t="s">
         <v>4</v>
       </c>
@@ -10668,8 +10716,8 @@
         <v>6265</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A142" s="46"/>
       <c r="B142" s="20" t="s">
         <v>5</v>
       </c>
@@ -10731,8 +10779,8 @@
         <v>6799</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A143" s="48"/>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A143" s="46"/>
       <c r="B143" s="20" t="s">
         <v>6</v>
       </c>
@@ -10794,8 +10842,8 @@
         <v>8115</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A144" s="46"/>
       <c r="B144" s="20" t="s">
         <v>7</v>
       </c>
@@ -10858,7 +10906,7 @@
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
+      <c r="A145" s="46"/>
       <c r="B145" s="20" t="s">
         <v>8</v>
       </c>
@@ -10921,7 +10969,7 @@
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
+      <c r="A146" s="46"/>
       <c r="B146" s="20" t="s">
         <v>9</v>
       </c>
@@ -10984,7 +11032,7 @@
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="46"/>
       <c r="B147" s="20" t="s">
         <v>10</v>
       </c>
@@ -11047,7 +11095,7 @@
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
+      <c r="A148" s="46"/>
       <c r="B148" s="20" t="s">
         <v>11</v>
       </c>
@@ -11110,7 +11158,7 @@
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
+      <c r="A149" s="46"/>
       <c r="B149" s="20" t="s">
         <v>12</v>
       </c>
@@ -11173,7 +11221,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
+      <c r="A150" s="46"/>
       <c r="B150" s="20" t="s">
         <v>13</v>
       </c>
@@ -11236,7 +11284,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
+      <c r="A151" s="46"/>
       <c r="B151" s="20" t="s">
         <v>14</v>
       </c>
@@ -11299,7 +11347,7 @@
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
+      <c r="A152" s="46"/>
       <c r="B152" s="20" t="s">
         <v>15</v>
       </c>
@@ -11362,7 +11410,7 @@
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A153" s="48"/>
+      <c r="A153" s="46"/>
       <c r="B153" s="20" t="s">
         <v>16</v>
       </c>
@@ -11425,7 +11473,7 @@
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
+      <c r="A154" s="46"/>
       <c r="B154" s="20" t="s">
         <v>17</v>
       </c>
@@ -11488,7 +11536,7 @@
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A155" s="48"/>
+      <c r="A155" s="46"/>
       <c r="B155" s="20" t="s">
         <v>18</v>
       </c>
@@ -11551,7 +11599,7 @@
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
+      <c r="A156" s="46"/>
       <c r="B156" s="20" t="s">
         <v>19</v>
       </c>
@@ -11614,7 +11662,7 @@
       </c>
     </row>
     <row r="157" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="49"/>
+      <c r="A157" s="61"/>
       <c r="B157" s="27" t="s">
         <v>20</v>
       </c>
@@ -11677,10 +11725,10 @@
       </c>
     </row>
     <row r="158" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="50" t="s">
+      <c r="A158" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="51"/>
+      <c r="B158" s="63"/>
       <c r="C158" s="34">
         <v>1173946</v>
       </c>
@@ -11740,162 +11788,162 @@
       </c>
     </row>
     <row r="160" spans="1:21" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="45" t="s">
+      <c r="A160" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B160" s="45"/>
-      <c r="C160" s="45"/>
-      <c r="D160" s="45"/>
-      <c r="E160" s="45"/>
-      <c r="F160" s="45"/>
-      <c r="G160" s="45"/>
-      <c r="H160" s="45"/>
-      <c r="I160" s="45"/>
-      <c r="J160" s="45"/>
-      <c r="K160" s="45"/>
-      <c r="L160" s="45"/>
-      <c r="M160" s="45"/>
-      <c r="N160" s="45"/>
-      <c r="O160" s="45"/>
-      <c r="P160" s="45"/>
-      <c r="Q160" s="45"/>
-      <c r="R160" s="45"/>
-      <c r="S160" s="45"/>
-      <c r="T160" s="45"/>
+      <c r="B160" s="59"/>
+      <c r="C160" s="59"/>
+      <c r="D160" s="59"/>
+      <c r="E160" s="59"/>
+      <c r="F160" s="59"/>
+      <c r="G160" s="59"/>
+      <c r="H160" s="59"/>
+      <c r="I160" s="59"/>
+      <c r="J160" s="59"/>
+      <c r="K160" s="59"/>
+      <c r="L160" s="59"/>
+      <c r="M160" s="59"/>
+      <c r="N160" s="59"/>
+      <c r="O160" s="59"/>
+      <c r="P160" s="59"/>
+      <c r="Q160" s="59"/>
+      <c r="R160" s="59"/>
+      <c r="S160" s="59"/>
+      <c r="T160" s="59"/>
     </row>
     <row r="161" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="45"/>
-      <c r="B161" s="45"/>
-      <c r="C161" s="45"/>
-      <c r="D161" s="45"/>
-      <c r="E161" s="45"/>
-      <c r="F161" s="45"/>
-      <c r="G161" s="45"/>
-      <c r="H161" s="45"/>
-      <c r="I161" s="45"/>
-      <c r="J161" s="45"/>
-      <c r="K161" s="45"/>
-      <c r="L161" s="45"/>
-      <c r="M161" s="45"/>
-      <c r="N161" s="45"/>
-      <c r="O161" s="45"/>
-      <c r="P161" s="45"/>
-      <c r="Q161" s="45"/>
-      <c r="R161" s="45"/>
-      <c r="S161" s="45"/>
-      <c r="T161" s="45"/>
+      <c r="A161" s="59"/>
+      <c r="B161" s="59"/>
+      <c r="C161" s="59"/>
+      <c r="D161" s="59"/>
+      <c r="E161" s="59"/>
+      <c r="F161" s="59"/>
+      <c r="G161" s="59"/>
+      <c r="H161" s="59"/>
+      <c r="I161" s="59"/>
+      <c r="J161" s="59"/>
+      <c r="K161" s="59"/>
+      <c r="L161" s="59"/>
+      <c r="M161" s="59"/>
+      <c r="N161" s="59"/>
+      <c r="O161" s="59"/>
+      <c r="P161" s="59"/>
+      <c r="Q161" s="59"/>
+      <c r="R161" s="59"/>
+      <c r="S161" s="59"/>
+      <c r="T161" s="59"/>
     </row>
     <row r="162" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="45"/>
-      <c r="B162" s="45"/>
-      <c r="C162" s="45"/>
-      <c r="D162" s="45"/>
-      <c r="E162" s="45"/>
-      <c r="F162" s="45"/>
-      <c r="G162" s="45"/>
-      <c r="H162" s="45"/>
-      <c r="I162" s="45"/>
-      <c r="J162" s="45"/>
-      <c r="K162" s="45"/>
-      <c r="L162" s="45"/>
-      <c r="M162" s="45"/>
-      <c r="N162" s="45"/>
-      <c r="O162" s="45"/>
-      <c r="P162" s="45"/>
-      <c r="Q162" s="45"/>
-      <c r="R162" s="45"/>
-      <c r="S162" s="45"/>
-      <c r="T162" s="45"/>
+      <c r="A162" s="59"/>
+      <c r="B162" s="59"/>
+      <c r="C162" s="59"/>
+      <c r="D162" s="59"/>
+      <c r="E162" s="59"/>
+      <c r="F162" s="59"/>
+      <c r="G162" s="59"/>
+      <c r="H162" s="59"/>
+      <c r="I162" s="59"/>
+      <c r="J162" s="59"/>
+      <c r="K162" s="59"/>
+      <c r="L162" s="59"/>
+      <c r="M162" s="59"/>
+      <c r="N162" s="59"/>
+      <c r="O162" s="59"/>
+      <c r="P162" s="59"/>
+      <c r="Q162" s="59"/>
+      <c r="R162" s="59"/>
+      <c r="S162" s="59"/>
+      <c r="T162" s="59"/>
     </row>
     <row r="163" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="45"/>
-      <c r="B163" s="45"/>
-      <c r="C163" s="45"/>
-      <c r="D163" s="45"/>
-      <c r="E163" s="45"/>
-      <c r="F163" s="45"/>
-      <c r="G163" s="45"/>
-      <c r="H163" s="45"/>
-      <c r="I163" s="45"/>
-      <c r="J163" s="45"/>
-      <c r="K163" s="45"/>
-      <c r="L163" s="45"/>
-      <c r="M163" s="45"/>
-      <c r="N163" s="45"/>
-      <c r="O163" s="45"/>
-      <c r="P163" s="45"/>
-      <c r="Q163" s="45"/>
-      <c r="R163" s="45"/>
-      <c r="S163" s="45"/>
-      <c r="T163" s="45"/>
+      <c r="A163" s="59"/>
+      <c r="B163" s="59"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59"/>
+      <c r="G163" s="59"/>
+      <c r="H163" s="59"/>
+      <c r="I163" s="59"/>
+      <c r="J163" s="59"/>
+      <c r="K163" s="59"/>
+      <c r="L163" s="59"/>
+      <c r="M163" s="59"/>
+      <c r="N163" s="59"/>
+      <c r="O163" s="59"/>
+      <c r="P163" s="59"/>
+      <c r="Q163" s="59"/>
+      <c r="R163" s="59"/>
+      <c r="S163" s="59"/>
+      <c r="T163" s="59"/>
     </row>
     <row r="164" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="46" t="s">
+      <c r="A164" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B164" s="46"/>
-      <c r="C164" s="46"/>
-      <c r="D164" s="46"/>
-      <c r="E164" s="46"/>
-      <c r="F164" s="46"/>
-      <c r="G164" s="46"/>
-      <c r="H164" s="46"/>
-      <c r="I164" s="46"/>
-      <c r="J164" s="46"/>
-      <c r="K164" s="46"/>
-      <c r="L164" s="46"/>
-      <c r="M164" s="46"/>
-      <c r="N164" s="46"/>
-      <c r="O164" s="46"/>
-      <c r="P164" s="46"/>
-      <c r="Q164" s="46"/>
-      <c r="R164" s="46"/>
-      <c r="S164" s="46"/>
-      <c r="T164" s="46"/>
+      <c r="B164" s="60"/>
+      <c r="C164" s="60"/>
+      <c r="D164" s="60"/>
+      <c r="E164" s="60"/>
+      <c r="F164" s="60"/>
+      <c r="G164" s="60"/>
+      <c r="H164" s="60"/>
+      <c r="I164" s="60"/>
+      <c r="J164" s="60"/>
+      <c r="K164" s="60"/>
+      <c r="L164" s="60"/>
+      <c r="M164" s="60"/>
+      <c r="N164" s="60"/>
+      <c r="O164" s="60"/>
+      <c r="P164" s="60"/>
+      <c r="Q164" s="60"/>
+      <c r="R164" s="60"/>
+      <c r="S164" s="60"/>
+      <c r="T164" s="60"/>
     </row>
     <row r="165" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="46"/>
-      <c r="B165" s="46"/>
-      <c r="C165" s="46"/>
-      <c r="D165" s="46"/>
-      <c r="E165" s="46"/>
-      <c r="F165" s="46"/>
-      <c r="G165" s="46"/>
-      <c r="H165" s="46"/>
-      <c r="I165" s="46"/>
-      <c r="J165" s="46"/>
-      <c r="K165" s="46"/>
-      <c r="L165" s="46"/>
-      <c r="M165" s="46"/>
-      <c r="N165" s="46"/>
-      <c r="O165" s="46"/>
-      <c r="P165" s="46"/>
-      <c r="Q165" s="46"/>
-      <c r="R165" s="46"/>
-      <c r="S165" s="46"/>
-      <c r="T165" s="46"/>
+      <c r="A165" s="60"/>
+      <c r="B165" s="60"/>
+      <c r="C165" s="60"/>
+      <c r="D165" s="60"/>
+      <c r="E165" s="60"/>
+      <c r="F165" s="60"/>
+      <c r="G165" s="60"/>
+      <c r="H165" s="60"/>
+      <c r="I165" s="60"/>
+      <c r="J165" s="60"/>
+      <c r="K165" s="60"/>
+      <c r="L165" s="60"/>
+      <c r="M165" s="60"/>
+      <c r="N165" s="60"/>
+      <c r="O165" s="60"/>
+      <c r="P165" s="60"/>
+      <c r="Q165" s="60"/>
+      <c r="R165" s="60"/>
+      <c r="S165" s="60"/>
+      <c r="T165" s="60"/>
     </row>
     <row r="166" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="46"/>
-      <c r="B166" s="46"/>
-      <c r="C166" s="46"/>
-      <c r="D166" s="46"/>
-      <c r="E166" s="46"/>
-      <c r="F166" s="46"/>
-      <c r="G166" s="46"/>
-      <c r="H166" s="46"/>
-      <c r="I166" s="46"/>
-      <c r="J166" s="46"/>
-      <c r="K166" s="46"/>
-      <c r="L166" s="46"/>
-      <c r="M166" s="46"/>
-      <c r="N166" s="46"/>
-      <c r="O166" s="46"/>
-      <c r="P166" s="46"/>
-      <c r="Q166" s="46"/>
-      <c r="R166" s="46"/>
-      <c r="S166" s="46"/>
-      <c r="T166" s="46"/>
+      <c r="A166" s="60"/>
+      <c r="B166" s="60"/>
+      <c r="C166" s="60"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="60"/>
+      <c r="F166" s="60"/>
+      <c r="G166" s="60"/>
+      <c r="H166" s="60"/>
+      <c r="I166" s="60"/>
+      <c r="J166" s="60"/>
+      <c r="K166" s="60"/>
+      <c r="L166" s="60"/>
+      <c r="M166" s="60"/>
+      <c r="N166" s="60"/>
+      <c r="O166" s="60"/>
+      <c r="P166" s="60"/>
+      <c r="Q166" s="60"/>
+      <c r="R166" s="60"/>
+      <c r="S166" s="60"/>
+      <c r="T166" s="60"/>
     </row>
     <row r="167" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="44"/>
@@ -11920,50 +11968,50 @@
       <c r="T167" s="44"/>
     </row>
     <row r="168" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="46" t="s">
+      <c r="A168" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B168" s="46"/>
-      <c r="C168" s="46"/>
-      <c r="D168" s="46"/>
-      <c r="E168" s="46"/>
-      <c r="F168" s="46"/>
-      <c r="G168" s="46"/>
-      <c r="H168" s="46"/>
-      <c r="I168" s="46"/>
-      <c r="J168" s="46"/>
-      <c r="K168" s="46"/>
-      <c r="L168" s="46"/>
-      <c r="M168" s="46"/>
-      <c r="N168" s="46"/>
-      <c r="O168" s="46"/>
-      <c r="P168" s="46"/>
-      <c r="Q168" s="46"/>
-      <c r="R168" s="46"/>
-      <c r="S168" s="46"/>
-      <c r="T168" s="46"/>
+      <c r="B168" s="60"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="60"/>
+      <c r="E168" s="60"/>
+      <c r="F168" s="60"/>
+      <c r="G168" s="60"/>
+      <c r="H168" s="60"/>
+      <c r="I168" s="60"/>
+      <c r="J168" s="60"/>
+      <c r="K168" s="60"/>
+      <c r="L168" s="60"/>
+      <c r="M168" s="60"/>
+      <c r="N168" s="60"/>
+      <c r="O168" s="60"/>
+      <c r="P168" s="60"/>
+      <c r="Q168" s="60"/>
+      <c r="R168" s="60"/>
+      <c r="S168" s="60"/>
+      <c r="T168" s="60"/>
     </row>
     <row r="169" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="46"/>
-      <c r="B169" s="46"/>
-      <c r="C169" s="46"/>
-      <c r="D169" s="46"/>
-      <c r="E169" s="46"/>
-      <c r="F169" s="46"/>
-      <c r="G169" s="46"/>
-      <c r="H169" s="46"/>
-      <c r="I169" s="46"/>
-      <c r="J169" s="46"/>
-      <c r="K169" s="46"/>
-      <c r="L169" s="46"/>
-      <c r="M169" s="46"/>
-      <c r="N169" s="46"/>
-      <c r="O169" s="46"/>
-      <c r="P169" s="46"/>
-      <c r="Q169" s="46"/>
-      <c r="R169" s="46"/>
-      <c r="S169" s="46"/>
-      <c r="T169" s="46"/>
+      <c r="A169" s="60"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="60"/>
+      <c r="E169" s="60"/>
+      <c r="F169" s="60"/>
+      <c r="G169" s="60"/>
+      <c r="H169" s="60"/>
+      <c r="I169" s="60"/>
+      <c r="J169" s="60"/>
+      <c r="K169" s="60"/>
+      <c r="L169" s="60"/>
+      <c r="M169" s="60"/>
+      <c r="N169" s="60"/>
+      <c r="O169" s="60"/>
+      <c r="P169" s="60"/>
+      <c r="Q169" s="60"/>
+      <c r="R169" s="60"/>
+      <c r="S169" s="60"/>
+      <c r="T169" s="60"/>
     </row>
     <row r="175" spans="1:20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -11976,6 +12024,19 @@
     <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A160:T163"/>
+    <mergeCell ref="A168:T169"/>
+    <mergeCell ref="A164:T166"/>
+    <mergeCell ref="A139:A157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A120:A138"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:K3"/>
@@ -11989,19 +12050,6 @@
     <mergeCell ref="A63:A81"/>
     <mergeCell ref="A82:A100"/>
     <mergeCell ref="A101:A119"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A160:T163"/>
-    <mergeCell ref="A168:T169"/>
-    <mergeCell ref="A164:T166"/>
-    <mergeCell ref="A139:A157"/>
-    <mergeCell ref="A158:B158"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
